--- a/medicine/Maladie à coronavirus 2019/Pandémie_de_Covid-19_aux_Tuvalu/Pandémie_de_Covid-19_aux_Tuvalu.xlsx
+++ b/medicine/Maladie à coronavirus 2019/Pandémie_de_Covid-19_aux_Tuvalu/Pandémie_de_Covid-19_aux_Tuvalu.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Pand%C3%A9mie_de_Covid-19_aux_Tuvalu</t>
+          <t>Pandémie_de_Covid-19_aux_Tuvalu</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La pandémie de Covid-19 est une crise sanitaire majeure provoquée par une maladie infectieuse émergente apparue fin 2019 en Chine continentale, la maladie à coronavirus 2019, dont l'agent pathogène est le SARS-CoV-2. Ce virus est à l'origine d'une pandémie[note 1], déclarée le 11 mars 2020 par l'Organisation mondiale de la santé.
-La pandémie de Covid-19 aux Tuvalu démarre officiellement le 20 mai 2022. C'est officiellement l'avant-dernier pays souverain à être resté indemne, l'autre étant le Turkménistan mais avec certains doutes sur la véracité des chiffres transmis par les autorités sanitaires nationales[2].
+La pandémie de Covid-19 aux Tuvalu démarre officiellement le 20 mai 2022. C'est officiellement l'avant-dernier pays souverain à être resté indemne, l'autre étant le Turkménistan mais avec certains doutes sur la véracité des chiffres transmis par les autorités sanitaires nationales.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Pand%C3%A9mie_de_Covid-19_aux_Tuvalu</t>
+          <t>Pandémie_de_Covid-19_aux_Tuvalu</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,10 +524,12 @@
           <t>Premières mesures</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le 20 mars 2020, le gouverneur général de Tuvalu a déclaré l'état d'urgence des atolls à la lumière de la pandémie de Covid-19[3]. L'état d'urgence durera 14 jours jusqu'à nouvel ordre. Dans le cadre de la déclaration, les rassemblements publics seront limités à 10 personnes maximum.
-Gràce aux mesures d'isolement, le pays ne comptait encore aucun cas de contamination en février 2022 et la moitié de la population était vaccinée[4]
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le 20 mars 2020, le gouverneur général de Tuvalu a déclaré l'état d'urgence des atolls à la lumière de la pandémie de Covid-19. L'état d'urgence durera 14 jours jusqu'à nouvel ordre. Dans le cadre de la déclaration, les rassemblements publics seront limités à 10 personnes maximum.
+Gràce aux mesures d'isolement, le pays ne comptait encore aucun cas de contamination en février 2022 et la moitié de la population était vaccinée
 </t>
         </is>
       </c>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Pand%C3%A9mie_de_Covid-19_aux_Tuvalu</t>
+          <t>Pandémie_de_Covid-19_aux_Tuvalu</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,9 +558,11 @@
           <t>Premiers cas</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le premier cas arrive le 20 mai 2022 lorsque le Premier ministre par intérim de Tuvalu, Minute Taupo, a annoncé les cas avec trois autres suspects[5]. Tous les cas étaient arrivés sur un vol en provenance des Fidji ;cela n'a donné lieu à aucune restriction.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le premier cas arrive le 20 mai 2022 lorsque le Premier ministre par intérim de Tuvalu, Minute Taupo, a annoncé les cas avec trois autres suspects. Tous les cas étaient arrivés sur un vol en provenance des Fidji ;cela n'a donné lieu à aucune restriction.
 </t>
         </is>
       </c>
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Pand%C3%A9mie_de_Covid-19_aux_Tuvalu</t>
+          <t>Pandémie_de_Covid-19_aux_Tuvalu</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -576,6 +592,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
